--- a/CSCO.xlsx
+++ b/CSCO.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{312755E6-4DED-405B-B664-B902DD26706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE9D8C-E179-4E55-8E3A-4C4B829851C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48135" yWindow="3465" windowWidth="38700" windowHeight="15345" xr2:uid="{5ED8D86A-A1D6-40BE-A8D1-3AD681AED52B}"/>
+    <workbookView xWindow="25140" yWindow="0" windowWidth="26460" windowHeight="20880" xr2:uid="{5ED8D86A-A1D6-40BE-A8D1-3AD681AED52B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="2" r:id="rId1"/>
+    <sheet name="Model" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Main</t>
   </si>
@@ -52,14 +53,29 @@
   <si>
     <t>Price</t>
   </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -104,17 +120,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1439,21 +1453,67 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD7BF36-96F0-4ABA-801F-D66DDEC3058C}">
+  <dimension ref="J2:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6A1744-E4D5-4196-B3AF-2B9516536BD5}">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1675,121 +1735,121 @@
         <v>51557</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>4.05</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>6.23</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>11.24</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>21.88</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>46.1</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>13.54</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>9.2899999999999991</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>13.73</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>14.74</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>13.49</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>12.6</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <v>20.37</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>15.49</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <v>15.51</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <v>16.25</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <v>11.33</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <v>11.5</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="6">
         <v>19.010000000000002</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="6">
         <v>19.329999999999998</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="6">
         <v>22.43</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="6">
         <v>24.93</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>26.59</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="6">
         <v>36.909999999999997</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="6">
         <v>49.67</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="6">
         <v>43.61</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="6">
         <v>52.9</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="6">
         <v>44.6</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <f>RATE(2023-1996,0,-C4,AC4)</f>
         <v>9.2919417686090272E-2</v>
       </c>
@@ -1819,11 +1879,11 @@
         <f t="shared" si="1"/>
         <v>0.17777895181741332</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>-0.15152738527788989</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>-1.9561194818926708E-3</v>
       </c>
@@ -1867,39 +1927,39 @@
         <f t="shared" si="1"/>
         <v>5.5274527257332728E-2</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <f t="shared" si="1"/>
         <v>-3.0139691813936276E-2</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <f t="shared" si="1"/>
         <v>4.2828051419116608E-2</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="5">
         <f t="shared" si="1"/>
         <v>1.749354162852601E-3</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="5">
         <f t="shared" si="1"/>
         <v>-2.5219810343777294E-2</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="5">
         <f t="shared" si="1"/>
         <v>2.7601291532131977E-2</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="Z9" s="5">
         <f t="shared" si="1"/>
         <v>5.2179201297384958E-2</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AA9" s="5">
         <f t="shared" si="1"/>
         <v>-5.0150277435265123E-2</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="5">
         <f t="shared" si="1"/>
         <v>1.0486602705827464E-2</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AC9" s="5">
         <f t="shared" si="1"/>
         <v>3.490706170460478E-2</v>
       </c>
@@ -1908,19 +1968,19 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <f t="shared" ref="D10:AC10" si="2">+D4/C4-1</f>
         <v>0.53827160493827186</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <f t="shared" si="2"/>
         <v>0.80417335473515239</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <f t="shared" si="2"/>
         <v>0.94661921708185037</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <f t="shared" si="2"/>
         <v>1.1069469835466181</v>
       </c>
@@ -1928,11 +1988,11 @@
         <f t="shared" si="2"/>
         <v>-0.70629067245119304</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <f t="shared" si="2"/>
         <v>-0.31388478581979318</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <f t="shared" si="2"/>
         <v>0.47793326157158256</v>
       </c>
@@ -1976,45 +2036,45 @@
         <f t="shared" si="2"/>
         <v>0.65304347826086961</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <f t="shared" si="2"/>
         <v>1.6833245660178742E-2</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <f t="shared" si="2"/>
         <v>0.16037247801345078</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="5">
         <f t="shared" si="2"/>
         <v>0.1114578689255461</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="5">
         <f t="shared" si="2"/>
         <v>6.6586442037705584E-2</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <f t="shared" si="2"/>
         <v>0.38811583301993213</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="5">
         <f t="shared" si="2"/>
         <v>0.34570577079382292</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="5">
         <f t="shared" si="2"/>
         <v>-0.12200523454801693</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="5">
         <f t="shared" si="2"/>
         <v>0.21302453565695934</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="5">
         <f t="shared" si="2"/>
         <v>-0.15689981096408312</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f>CORREL(C3:AC3,C4:AC4)</f>
         <v>0.55101552180960389</v>
       </c>
